--- a/excel_data/1_Controls_Fluency_NoID.xlsx
+++ b/excel_data/1_Controls_Fluency_NoID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/c_hambric_bowdoin_edu/Documents/Desktop/Aphasia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/c_hambric_bowdoin_edu/Documents/Documents/AphasiaProject/excel_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AF3152C-01F3-469B-9157-A09F8744E4A6}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DB14693-A41F-43A9-8DB7-CD1F22FCA5E8}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="1755" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="1425" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -2447,12 +2447,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6502E-F014-4688-911E-B7358BEDCC08}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
